--- a/low-flow-index/dados-saida/rio_negro.xlsx
+++ b/low-flow-index/dados-saida/rio_negro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="8">
   <si>
     <t>ts</t>
   </si>
@@ -26,6 +26,35 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Pexpon(&lt;=Dobs)</t>
+  </si>
+  <si>
+    <t>Pgama(&lt;=Dobs)</t>
+  </si>
+  <si>
+    <t>[0.12608094 0.83585093 0.39854551 0.97959669 0.06674558 0.72317347
+ 0.09175588 0.30789628 0.19678818 0.25929693 0.43766013 0.83480859
+ 0.10295246 0.93128409 0.3832997  0.         0.16954708 0.03144139
+ 0.19385697 0.05578962 0.9833938  0.23459496 0.06405945 0.2349718
+ 0.53621465 0.94012898 0.10415635 0.30586777 0.33551516 0.25821995
+ 0.99975451 0.07599952 0.26294373 0.21754415 0.13166211 0.02905713
+ 0.23316447 0.53012509 0.64606932 0.07240876 0.95010331 0.50306211
+ 0.97704467]</t>
+  </si>
+  <si>
+    <t>[2.45087179e-01 8.41174790e-01 5.06720866e-01 9.67912397e-01
+ 1.65195733e-01 7.55718432e-01 2.01183146e-01 4.29423209e-01
+ 3.23662807e-01 3.85069637e-01 5.38463273e-01 8.40362635e-01
+ 2.16080814e-01 9.19842995e-01 4.94117993e-01 3.23880877e-11
+ 2.94823511e-01 1.03791682e-01 3.20630144e-01 1.47862605e-01
+ 9.72448906e-01 3.61481307e-01 1.61051798e-01 3.61847259e-01
+ 6.15499419e-01 9.27880498e-01 2.17646128e-01 4.27619350e-01
+ 4.53625708e-01 3.84057351e-01 9.98665677e-01 1.79016905e-01
+ 3.88487077e-01 3.44706687e-01 2.51785787e-01 9.88668892e-02
+ 3.60090324e-01 6.10835493e-01 6.98285141e-01 1.73733072e-01
+ 9.37235496e-01 5.89974352e-01 9.64976688e-01]</t>
   </si>
 </sst>
 </file>
@@ -388,13 +417,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +436,14 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -424,8 +459,14 @@
       <c r="E2" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -441,8 +482,14 @@
       <c r="E3" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -458,8 +505,14 @@
       <c r="E4" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -475,8 +528,14 @@
       <c r="E5" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -492,8 +551,14 @@
       <c r="E6" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>19</v>
       </c>
@@ -509,8 +574,14 @@
       <c r="E7" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>21</v>
       </c>
@@ -526,8 +597,14 @@
       <c r="E8" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>27</v>
       </c>
@@ -543,8 +620,14 @@
       <c r="E9" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>31</v>
       </c>
@@ -560,8 +643,14 @@
       <c r="E10" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -577,8 +666,14 @@
       <c r="E11" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>34</v>
       </c>
@@ -594,8 +689,14 @@
       <c r="E12" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>44</v>
       </c>
@@ -611,8 +712,14 @@
       <c r="E13" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>46</v>
       </c>
@@ -628,8 +735,14 @@
       <c r="E14" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -645,8 +758,14 @@
       <c r="E15" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>53</v>
       </c>
@@ -662,8 +781,14 @@
       <c r="E16" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>57</v>
       </c>
@@ -679,8 +804,14 @@
       <c r="E17" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>58</v>
       </c>
@@ -696,8 +827,14 @@
       <c r="E18" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>59</v>
       </c>
@@ -713,8 +850,14 @@
       <c r="E19" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>61</v>
       </c>
@@ -730,8 +873,14 @@
       <c r="E20" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>62</v>
       </c>
@@ -747,8 +896,14 @@
       <c r="E21" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>77</v>
       </c>
@@ -764,8 +919,14 @@
       <c r="E22" s="3">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>78</v>
       </c>
@@ -781,8 +942,14 @@
       <c r="E23" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>81</v>
       </c>
@@ -798,8 +965,14 @@
       <c r="E24" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>84</v>
       </c>
@@ -815,8 +988,14 @@
       <c r="E25" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>90</v>
       </c>
@@ -832,8 +1011,14 @@
       <c r="E26" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>102</v>
       </c>
@@ -849,8 +1034,14 @@
       <c r="E27" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>103</v>
       </c>
@@ -866,8 +1057,14 @@
       <c r="E28" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>107</v>
       </c>
@@ -883,8 +1080,14 @@
       <c r="E29" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>109</v>
       </c>
@@ -900,8 +1103,14 @@
       <c r="E30" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>110</v>
       </c>
@@ -917,8 +1126,14 @@
       <c r="E31" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>118</v>
       </c>
@@ -934,8 +1149,14 @@
       <c r="E32" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>121</v>
       </c>
@@ -951,8 +1172,14 @@
       <c r="E33" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>123</v>
       </c>
@@ -968,8 +1195,14 @@
       <c r="E34" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>131</v>
       </c>
@@ -985,8 +1218,14 @@
       <c r="E35" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>136</v>
       </c>
@@ -1002,8 +1241,14 @@
       <c r="E36" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>142</v>
       </c>
@@ -1019,8 +1264,14 @@
       <c r="E37" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>144</v>
       </c>
@@ -1036,8 +1287,14 @@
       <c r="E38" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>146</v>
       </c>
@@ -1053,8 +1310,14 @@
       <c r="E39" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>159</v>
       </c>
@@ -1070,8 +1333,14 @@
       <c r="E40" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>160</v>
       </c>
@@ -1087,8 +1356,14 @@
       <c r="E41" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>168</v>
       </c>
@@ -1104,8 +1379,14 @@
       <c r="E42" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>170</v>
       </c>
@@ -1121,8 +1402,14 @@
       <c r="E43" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>178</v>
       </c>
@@ -1137,6 +1424,12 @@
       </c>
       <c r="E44" s="3">
         <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
